--- a/template.xlsx
+++ b/template.xlsx
@@ -1,43 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10708"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78787FF-6A23-F44F-9DF4-CD098902B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D264755-88E7-734D-9E66-CA017994D576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17800" yWindow="3200" windowWidth="32880" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="demo" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>商品报价单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>送货单</t>
   </si>
   <si>
-    <t>产品名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>客户名称：</t>
   </si>
   <si>
-    <t>型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>订单单号：</t>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>销售部门：</t>
+  </si>
+  <si>
+    <t>送货日期：</t>
+  </si>
+  <si>
+    <t>联系人：</t>
+  </si>
+  <si>
+    <t>联系电话：</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>签收</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>制单人：</t>
+  </si>
+  <si>
+    <t>共1页,第1页</t>
+  </si>
+  <si>
+    <t>才望子信息技术有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,7 +80,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -54,7 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -69,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -77,14 +196,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -101,6 +347,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>457755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC956B69-F4FD-386C-596C-A4FBF9A20F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="152400"/>
+          <a:ext cx="1397000" cy="305355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,36 +655,938 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B51A477-9ABD-E049-A9E7-D3A8CEA3BD20}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="255" width="9" style="1"/>
+    <col min="256" max="256" width="2.6640625" style="1" customWidth="1"/>
+    <col min="257" max="259" width="7" style="1" customWidth="1"/>
+    <col min="260" max="260" width="11.1640625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="8.33203125" style="1" customWidth="1"/>
+    <col min="262" max="262" width="6.1640625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="10.6640625" style="1" customWidth="1"/>
+    <col min="264" max="264" width="13.83203125" style="1" customWidth="1"/>
+    <col min="265" max="265" width="14.33203125" style="1" customWidth="1"/>
+    <col min="266" max="266" width="1" style="1" customWidth="1"/>
+    <col min="267" max="511" width="9" style="1"/>
+    <col min="512" max="512" width="2.6640625" style="1" customWidth="1"/>
+    <col min="513" max="515" width="7" style="1" customWidth="1"/>
+    <col min="516" max="516" width="11.1640625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="8.33203125" style="1" customWidth="1"/>
+    <col min="518" max="518" width="6.1640625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="10.6640625" style="1" customWidth="1"/>
+    <col min="520" max="520" width="13.83203125" style="1" customWidth="1"/>
+    <col min="521" max="521" width="14.33203125" style="1" customWidth="1"/>
+    <col min="522" max="522" width="1" style="1" customWidth="1"/>
+    <col min="523" max="767" width="9" style="1"/>
+    <col min="768" max="768" width="2.6640625" style="1" customWidth="1"/>
+    <col min="769" max="771" width="7" style="1" customWidth="1"/>
+    <col min="772" max="772" width="11.1640625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="8.33203125" style="1" customWidth="1"/>
+    <col min="774" max="774" width="6.1640625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="10.6640625" style="1" customWidth="1"/>
+    <col min="776" max="776" width="13.83203125" style="1" customWidth="1"/>
+    <col min="777" max="777" width="14.33203125" style="1" customWidth="1"/>
+    <col min="778" max="778" width="1" style="1" customWidth="1"/>
+    <col min="779" max="1023" width="9" style="1"/>
+    <col min="1024" max="1024" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1025" max="1027" width="7" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="1" style="1" customWidth="1"/>
+    <col min="1035" max="1279" width="9" style="1"/>
+    <col min="1280" max="1280" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1281" max="1283" width="7" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="1" style="1" customWidth="1"/>
+    <col min="1291" max="1535" width="9" style="1"/>
+    <col min="1536" max="1536" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1537" max="1539" width="7" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="1" style="1" customWidth="1"/>
+    <col min="1547" max="1791" width="9" style="1"/>
+    <col min="1792" max="1792" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1793" max="1795" width="7" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="1" style="1" customWidth="1"/>
+    <col min="1803" max="2047" width="9" style="1"/>
+    <col min="2048" max="2048" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2049" max="2051" width="7" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="1" style="1" customWidth="1"/>
+    <col min="2059" max="2303" width="9" style="1"/>
+    <col min="2304" max="2304" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2305" max="2307" width="7" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="1" style="1" customWidth="1"/>
+    <col min="2315" max="2559" width="9" style="1"/>
+    <col min="2560" max="2560" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2561" max="2563" width="7" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="1" style="1" customWidth="1"/>
+    <col min="2571" max="2815" width="9" style="1"/>
+    <col min="2816" max="2816" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2817" max="2819" width="7" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="1" style="1" customWidth="1"/>
+    <col min="2827" max="3071" width="9" style="1"/>
+    <col min="3072" max="3072" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3073" max="3075" width="7" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="1" style="1" customWidth="1"/>
+    <col min="3083" max="3327" width="9" style="1"/>
+    <col min="3328" max="3328" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3329" max="3331" width="7" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="1" style="1" customWidth="1"/>
+    <col min="3339" max="3583" width="9" style="1"/>
+    <col min="3584" max="3584" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3585" max="3587" width="7" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="1" style="1" customWidth="1"/>
+    <col min="3595" max="3839" width="9" style="1"/>
+    <col min="3840" max="3840" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3841" max="3843" width="7" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="1" style="1" customWidth="1"/>
+    <col min="3851" max="4095" width="9" style="1"/>
+    <col min="4096" max="4096" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4097" max="4099" width="7" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="1" style="1" customWidth="1"/>
+    <col min="4107" max="4351" width="9" style="1"/>
+    <col min="4352" max="4352" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4353" max="4355" width="7" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="1" style="1" customWidth="1"/>
+    <col min="4363" max="4607" width="9" style="1"/>
+    <col min="4608" max="4608" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4609" max="4611" width="7" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="1" style="1" customWidth="1"/>
+    <col min="4619" max="4863" width="9" style="1"/>
+    <col min="4864" max="4864" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4865" max="4867" width="7" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="1" style="1" customWidth="1"/>
+    <col min="4875" max="5119" width="9" style="1"/>
+    <col min="5120" max="5120" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5121" max="5123" width="7" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="1" style="1" customWidth="1"/>
+    <col min="5131" max="5375" width="9" style="1"/>
+    <col min="5376" max="5376" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5377" max="5379" width="7" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="1" style="1" customWidth="1"/>
+    <col min="5387" max="5631" width="9" style="1"/>
+    <col min="5632" max="5632" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5633" max="5635" width="7" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="1" style="1" customWidth="1"/>
+    <col min="5643" max="5887" width="9" style="1"/>
+    <col min="5888" max="5888" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5889" max="5891" width="7" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="1" style="1" customWidth="1"/>
+    <col min="5899" max="6143" width="9" style="1"/>
+    <col min="6144" max="6144" width="2.6640625" style="1" customWidth="1"/>
+    <col min="6145" max="6147" width="7" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="1" style="1" customWidth="1"/>
+    <col min="6155" max="6399" width="9" style="1"/>
+    <col min="6400" max="6400" width="2.6640625" style="1" customWidth="1"/>
+    <col min="6401" max="6403" width="7" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="1" style="1" customWidth="1"/>
+    <col min="6411" max="6655" width="9" style="1"/>
+    <col min="6656" max="6656" width="2.6640625" style="1" customWidth="1"/>
+    <col min="6657" max="6659" width="7" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="1" style="1" customWidth="1"/>
+    <col min="6667" max="6911" width="9" style="1"/>
+    <col min="6912" max="6912" width="2.6640625" style="1" customWidth="1"/>
+    <col min="6913" max="6915" width="7" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="1" style="1" customWidth="1"/>
+    <col min="6923" max="7167" width="9" style="1"/>
+    <col min="7168" max="7168" width="2.6640625" style="1" customWidth="1"/>
+    <col min="7169" max="7171" width="7" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="1" style="1" customWidth="1"/>
+    <col min="7179" max="7423" width="9" style="1"/>
+    <col min="7424" max="7424" width="2.6640625" style="1" customWidth="1"/>
+    <col min="7425" max="7427" width="7" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="1" style="1" customWidth="1"/>
+    <col min="7435" max="7679" width="9" style="1"/>
+    <col min="7680" max="7680" width="2.6640625" style="1" customWidth="1"/>
+    <col min="7681" max="7683" width="7" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="1" style="1" customWidth="1"/>
+    <col min="7691" max="7935" width="9" style="1"/>
+    <col min="7936" max="7936" width="2.6640625" style="1" customWidth="1"/>
+    <col min="7937" max="7939" width="7" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="1" style="1" customWidth="1"/>
+    <col min="7947" max="8191" width="9" style="1"/>
+    <col min="8192" max="8192" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8193" max="8195" width="7" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="1" style="1" customWidth="1"/>
+    <col min="8203" max="8447" width="9" style="1"/>
+    <col min="8448" max="8448" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8449" max="8451" width="7" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="1" style="1" customWidth="1"/>
+    <col min="8459" max="8703" width="9" style="1"/>
+    <col min="8704" max="8704" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8705" max="8707" width="7" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="1" style="1" customWidth="1"/>
+    <col min="8715" max="8959" width="9" style="1"/>
+    <col min="8960" max="8960" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8961" max="8963" width="7" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="1" style="1" customWidth="1"/>
+    <col min="8971" max="9215" width="9" style="1"/>
+    <col min="9216" max="9216" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9217" max="9219" width="7" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="1" style="1" customWidth="1"/>
+    <col min="9227" max="9471" width="9" style="1"/>
+    <col min="9472" max="9472" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9473" max="9475" width="7" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="1" style="1" customWidth="1"/>
+    <col min="9483" max="9727" width="9" style="1"/>
+    <col min="9728" max="9728" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9729" max="9731" width="7" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="1" style="1" customWidth="1"/>
+    <col min="9739" max="9983" width="9" style="1"/>
+    <col min="9984" max="9984" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9985" max="9987" width="7" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="1" style="1" customWidth="1"/>
+    <col min="9995" max="10239" width="9" style="1"/>
+    <col min="10240" max="10240" width="2.6640625" style="1" customWidth="1"/>
+    <col min="10241" max="10243" width="7" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="1" style="1" customWidth="1"/>
+    <col min="10251" max="10495" width="9" style="1"/>
+    <col min="10496" max="10496" width="2.6640625" style="1" customWidth="1"/>
+    <col min="10497" max="10499" width="7" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="1" style="1" customWidth="1"/>
+    <col min="10507" max="10751" width="9" style="1"/>
+    <col min="10752" max="10752" width="2.6640625" style="1" customWidth="1"/>
+    <col min="10753" max="10755" width="7" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="1" style="1" customWidth="1"/>
+    <col min="10763" max="11007" width="9" style="1"/>
+    <col min="11008" max="11008" width="2.6640625" style="1" customWidth="1"/>
+    <col min="11009" max="11011" width="7" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="13.83203125" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="1" style="1" customWidth="1"/>
+    <col min="11019" max="11263" width="9" style="1"/>
+    <col min="11264" max="11264" width="2.6640625" style="1" customWidth="1"/>
+    <col min="11265" max="11267" width="7" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="13.83203125" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="1" style="1" customWidth="1"/>
+    <col min="11275" max="11519" width="9" style="1"/>
+    <col min="11520" max="11520" width="2.6640625" style="1" customWidth="1"/>
+    <col min="11521" max="11523" width="7" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="13.83203125" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="1" style="1" customWidth="1"/>
+    <col min="11531" max="11775" width="9" style="1"/>
+    <col min="11776" max="11776" width="2.6640625" style="1" customWidth="1"/>
+    <col min="11777" max="11779" width="7" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="13.83203125" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="1" style="1" customWidth="1"/>
+    <col min="11787" max="12031" width="9" style="1"/>
+    <col min="12032" max="12032" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12033" max="12035" width="7" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="13.83203125" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="14.33203125" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="1" style="1" customWidth="1"/>
+    <col min="12043" max="12287" width="9" style="1"/>
+    <col min="12288" max="12288" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12289" max="12291" width="7" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="13.83203125" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="14.33203125" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="1" style="1" customWidth="1"/>
+    <col min="12299" max="12543" width="9" style="1"/>
+    <col min="12544" max="12544" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12545" max="12547" width="7" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="13.83203125" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="14.33203125" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="1" style="1" customWidth="1"/>
+    <col min="12555" max="12799" width="9" style="1"/>
+    <col min="12800" max="12800" width="2.6640625" style="1" customWidth="1"/>
+    <col min="12801" max="12803" width="7" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="13.83203125" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="14.33203125" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="1" style="1" customWidth="1"/>
+    <col min="12811" max="13055" width="9" style="1"/>
+    <col min="13056" max="13056" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13057" max="13059" width="7" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="1" style="1" customWidth="1"/>
+    <col min="13067" max="13311" width="9" style="1"/>
+    <col min="13312" max="13312" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13313" max="13315" width="7" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="1" style="1" customWidth="1"/>
+    <col min="13323" max="13567" width="9" style="1"/>
+    <col min="13568" max="13568" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13569" max="13571" width="7" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="1" style="1" customWidth="1"/>
+    <col min="13579" max="13823" width="9" style="1"/>
+    <col min="13824" max="13824" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13825" max="13827" width="7" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="1" style="1" customWidth="1"/>
+    <col min="13835" max="14079" width="9" style="1"/>
+    <col min="14080" max="14080" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14081" max="14083" width="7" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="1" style="1" customWidth="1"/>
+    <col min="14091" max="14335" width="9" style="1"/>
+    <col min="14336" max="14336" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14337" max="14339" width="7" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="1" style="1" customWidth="1"/>
+    <col min="14347" max="14591" width="9" style="1"/>
+    <col min="14592" max="14592" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14593" max="14595" width="7" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="1" style="1" customWidth="1"/>
+    <col min="14603" max="14847" width="9" style="1"/>
+    <col min="14848" max="14848" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14849" max="14851" width="7" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.33203125" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="13.83203125" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="1" style="1" customWidth="1"/>
+    <col min="14859" max="15103" width="9" style="1"/>
+    <col min="15104" max="15104" width="2.6640625" style="1" customWidth="1"/>
+    <col min="15105" max="15107" width="7" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="13.83203125" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="14.33203125" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="1" style="1" customWidth="1"/>
+    <col min="15115" max="15359" width="9" style="1"/>
+    <col min="15360" max="15360" width="2.6640625" style="1" customWidth="1"/>
+    <col min="15361" max="15363" width="7" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="13.83203125" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="14.33203125" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="1" style="1" customWidth="1"/>
+    <col min="15371" max="15615" width="9" style="1"/>
+    <col min="15616" max="15616" width="2.6640625" style="1" customWidth="1"/>
+    <col min="15617" max="15619" width="7" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="13.83203125" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="14.33203125" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="1" style="1" customWidth="1"/>
+    <col min="15627" max="15871" width="9" style="1"/>
+    <col min="15872" max="15872" width="2.6640625" style="1" customWidth="1"/>
+    <col min="15873" max="15875" width="7" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.33203125" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="13.83203125" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="14.33203125" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="1" style="1" customWidth="1"/>
+    <col min="15883" max="16127" width="9" style="1"/>
+    <col min="16128" max="16128" width="2.6640625" style="1" customWidth="1"/>
+    <col min="16129" max="16131" width="7" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="11.1640625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.33203125" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="6.1640625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="10.6640625" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="13.83203125" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="14.33203125" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="1" style="1" customWidth="1"/>
+    <col min="16139" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="E1" t="s">
+    <row r="1" spans="1:11" ht="38" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="28" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="20" customHeight="1"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="30.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.25" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="19" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="49">
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"宋体,常规"&amp;K000000上海才望子信息技术有限公司</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>